--- a/home/tests/import-export-data/medium_inflection_invalid_format.xlsx
+++ b/home/tests/import-export-data/medium_inflection_invalid_format.xlsx
@@ -501,15 +501,15 @@
     <tabColor rgb="FFFF00FF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH1000"/>
+  <dimension ref="A1:AH1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
@@ -2651,6 +2651,7 @@
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
